--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-noncompound.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-noncompound.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:37:35+00:00</t>
+    <t>2025-09-17T08:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-noncompound.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-noncompound.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T08:51:55+00:00</t>
+    <t>2025-09-23T12:31:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-noncompound.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-noncompound.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:31:20+00:00</t>
+    <t>2025-09-23T14:36:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-noncompound.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-noncompound.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:36:30+00:00</t>
+    <t>2025-10-23T12:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3145,7 +3145,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>196</v>
       </c>
@@ -5313,12 +5313,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN35">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-noncompound.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-noncompound.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:45:10+00:00</t>
+    <t>2025-10-23T14:53:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
